--- a/simple/excal-simple.xlsx
+++ b/simple/excal-simple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptii2\Desktop\Backend-teachingSchedule\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptii2\Desktop\backendp\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFF82C5-A827-4234-8A30-15A23B2B4EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494A354-E4DD-466D-92DD-644AA268BADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AABAD13-6F7B-49A5-B137-94B3D14D12A3}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>วิชาเฉพาะ</t>
   </si>
   <si>
-    <t xml:space="preserve">วิชาเฉพาะเลือก </t>
+    <t>วิชาเฉพาะเลือก</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
